--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/91.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/91.xlsx
@@ -479,13 +479,13 @@
         <v>-4.221508789465941</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.01370546513972</v>
+        <v>-10.77037959337336</v>
       </c>
       <c r="F2" t="n">
-        <v>5.673501663083052</v>
+        <v>5.767390150955287</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.62946537451166</v>
+        <v>-19.50923002863362</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.039992633731741</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.34249606594662</v>
+        <v>-11.10440632053472</v>
       </c>
       <c r="F3" t="n">
-        <v>5.623330674614771</v>
+        <v>5.713806635693899</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.06981098044217</v>
+        <v>-18.97277397214764</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-1.866217869916516</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.41402712541645</v>
+        <v>-11.17328264927582</v>
       </c>
       <c r="F4" t="n">
-        <v>5.448563346143162</v>
+        <v>5.527198132590622</v>
       </c>
       <c r="G4" t="n">
-        <v>-18.26544223665612</v>
+        <v>-18.15994235747496</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.8169087311761419</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.87994947983344</v>
+        <v>-11.63940056396749</v>
       </c>
       <c r="F5" t="n">
-        <v>5.718788533691285</v>
+        <v>5.792167637756812</v>
       </c>
       <c r="G5" t="n">
-        <v>-17.72279669747663</v>
+        <v>-17.59855725497459</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.136200887891186</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.2532838222048</v>
+        <v>-12.04284141062531</v>
       </c>
       <c r="F6" t="n">
-        <v>5.587108022737798</v>
+        <v>5.654571428494357</v>
       </c>
       <c r="G6" t="n">
-        <v>-17.3225190382617</v>
+        <v>-17.21330840286856</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.9795547839597925</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.13590112089582</v>
+        <v>-12.91806164192669</v>
       </c>
       <c r="F7" t="n">
-        <v>5.616402951884353</v>
+        <v>5.680629835095014</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.5040015086028</v>
+        <v>-16.39367129063713</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>1.720109866014558</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.96691495210656</v>
+        <v>-13.76917906937418</v>
       </c>
       <c r="F8" t="n">
-        <v>5.874615849560465</v>
+        <v>5.934124841144554</v>
       </c>
       <c r="G8" t="n">
-        <v>-16.12211629322121</v>
+        <v>-16.00510280286846</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>2.348826005306289</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.52733692025415</v>
+        <v>-14.33031483252435</v>
       </c>
       <c r="F9" t="n">
-        <v>6.025612826645133</v>
+        <v>6.081939074758861</v>
       </c>
       <c r="G9" t="n">
-        <v>-16.08311179643696</v>
+        <v>-15.96878237085416</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>2.867649801682655</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.27699278819256</v>
+        <v>-15.07995603344215</v>
       </c>
       <c r="F10" t="n">
-        <v>6.377489317877603</v>
+        <v>6.438249895219622</v>
       </c>
       <c r="G10" t="n">
-        <v>-15.37921703277288</v>
+        <v>-15.2733211440355</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>3.263322095435273</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.59998013784843</v>
+        <v>-15.394641849438</v>
       </c>
       <c r="F11" t="n">
-        <v>6.30377287233826</v>
+        <v>6.349636645756789</v>
       </c>
       <c r="G11" t="n">
-        <v>-14.73577483901821</v>
+        <v>-14.6287153666465</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>3.529309240051458</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.65144906670209</v>
+        <v>-16.47394389438501</v>
       </c>
       <c r="F12" t="n">
-        <v>6.715784148033783</v>
+        <v>6.746457777116808</v>
       </c>
       <c r="G12" t="n">
-        <v>-14.43054925130984</v>
+        <v>-14.30413420075202</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>3.663468930431639</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.21378752554151</v>
+        <v>-17.03286982643133</v>
       </c>
       <c r="F13" t="n">
-        <v>7.007926753366286</v>
+        <v>7.033594039417589</v>
       </c>
       <c r="G13" t="n">
-        <v>-13.90906333385036</v>
+        <v>-13.76864127861882</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>3.666458177680932</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.51559316200869</v>
+        <v>-18.32865220643846</v>
       </c>
       <c r="F14" t="n">
-        <v>7.079863600406072</v>
+        <v>7.097429802078898</v>
       </c>
       <c r="G14" t="n">
-        <v>-13.33840867433031</v>
+        <v>-13.20613170453906</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>3.551050911965123</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.66708392878692</v>
+        <v>-18.49416953391787</v>
       </c>
       <c r="F15" t="n">
-        <v>7.127482527289824</v>
+        <v>7.127648753523299</v>
       </c>
       <c r="G15" t="n">
-        <v>-12.75995115985067</v>
+        <v>-12.62948801160704</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>3.341097533669769</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.88152790154919</v>
+        <v>-19.7084277244192</v>
       </c>
       <c r="F16" t="n">
-        <v>7.162135807962517</v>
+        <v>7.158713503155677</v>
       </c>
       <c r="G16" t="n">
-        <v>-12.7003052760743</v>
+        <v>-12.58123840283746</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3.0660831424378</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.91763557082701</v>
+        <v>-20.7573788147364</v>
       </c>
       <c r="F17" t="n">
-        <v>7.597917435044981</v>
+        <v>7.595751605002937</v>
       </c>
       <c r="G17" t="n">
-        <v>-12.3274500563759</v>
+        <v>-12.17819845474272</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.757860671635952</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.56675390155417</v>
+        <v>-21.40896120492449</v>
       </c>
       <c r="F18" t="n">
-        <v>7.866993705979379</v>
+        <v>7.858398831907342</v>
       </c>
       <c r="G18" t="n">
-        <v>-11.65389158032103</v>
+        <v>-11.51613892283883</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.446877929648429</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.26914285110324</v>
+        <v>-22.09509909564794</v>
       </c>
       <c r="F19" t="n">
-        <v>7.720861290727291</v>
+        <v>7.722230212650027</v>
       </c>
       <c r="G19" t="n">
-        <v>-11.06823744773329</v>
+        <v>-10.90813713986242</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.16163310887536</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.20086533476556</v>
+        <v>-23.02197168449828</v>
       </c>
       <c r="F20" t="n">
-        <v>7.698533196366091</v>
+        <v>7.707172071499929</v>
       </c>
       <c r="G20" t="n">
-        <v>-10.35299041012423</v>
+        <v>-10.22077699742225</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.922259502223327</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.00485273601599</v>
+        <v>-23.79724105941245</v>
       </c>
       <c r="F21" t="n">
-        <v>7.964852067427548</v>
+        <v>7.952018424401897</v>
       </c>
       <c r="G21" t="n">
-        <v>-9.780072140424803</v>
+        <v>-9.667136081799068</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.739308410399566</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.40296945419574</v>
+        <v>-24.20208994004794</v>
       </c>
       <c r="F22" t="n">
-        <v>7.868504409101256</v>
+        <v>7.858565058140818</v>
       </c>
       <c r="G22" t="n">
-        <v>-9.181105242138452</v>
+        <v>-9.063969526614036</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.619178922567329</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.07682615966949</v>
+        <v>-24.86177341461451</v>
       </c>
       <c r="F23" t="n">
-        <v>7.88722930540154</v>
+        <v>7.877079727145825</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.495739814499981</v>
+        <v>-8.394116917764286</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.560214750366008</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.65832952542722</v>
+        <v>-25.43056536251826</v>
       </c>
       <c r="F24" t="n">
-        <v>8.266987802796026</v>
+        <v>8.24652242005112</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.093618999696226</v>
+        <v>-7.995061510266087</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.553131929856138</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.9033518825764</v>
+        <v>-25.67338766657732</v>
       </c>
       <c r="F25" t="n">
-        <v>8.005689941786889</v>
+        <v>7.981396466665188</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.808140110723328</v>
+        <v>-7.689982592763728</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.588959690054639</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.0805294914334</v>
+        <v>-25.83815208699922</v>
       </c>
       <c r="F26" t="n">
-        <v>8.070914182398401</v>
+        <v>8.044821552749676</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.279516243238149</v>
+        <v>-7.174348816523942</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.657113971472788</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.96209330008238</v>
+        <v>-25.72105548352974</v>
       </c>
       <c r="F27" t="n">
-        <v>8.098136172633383</v>
+        <v>8.068450122937476</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.059672271453585</v>
+        <v>-6.936787083853678</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.742820862782681</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.900794931985</v>
+        <v>-25.64739281706593</v>
       </c>
       <c r="F28" t="n">
-        <v>7.873877427647995</v>
+        <v>7.847613682758928</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.063871928352264</v>
+        <v>-6.935369271862272</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.833853226238278</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.06593091692879</v>
+        <v>-25.81259724810586</v>
       </c>
       <c r="F29" t="n">
-        <v>7.518211956093666</v>
+        <v>7.487024981289616</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.684964118152622</v>
+        <v>-6.557414818001678</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.91988721135682</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.08020192797332</v>
+        <v>-25.81741291986977</v>
       </c>
       <c r="F30" t="n">
-        <v>7.47411800316096</v>
+        <v>7.476254499161803</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.896760784634244</v>
+        <v>-6.778828160990522</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.98872086840339</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.83136614546795</v>
+        <v>-25.58305348669733</v>
       </c>
       <c r="F31" t="n">
-        <v>7.645057239255775</v>
+        <v>7.642348729451504</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.884513822432623</v>
+        <v>-6.781272664423979</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.031433268980771</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.74697210893126</v>
+        <v>-25.4944255702139</v>
       </c>
       <c r="F32" t="n">
-        <v>7.494206932377114</v>
+        <v>7.493542027443214</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.921303599106158</v>
+        <v>-6.837051343768612</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.042916753346373</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.52301648237162</v>
+        <v>-25.2757402930568</v>
       </c>
       <c r="F33" t="n">
-        <v>7.447609807928548</v>
+        <v>7.454889539153384</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.000344173123572</v>
+        <v>-6.916839935836665</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.018060976722901</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.32170184661266</v>
+        <v>-25.06527832544984</v>
       </c>
       <c r="F34" t="n">
-        <v>7.473756216652809</v>
+        <v>7.475819377550647</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.826060856331788</v>
+        <v>-6.769490157874714</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.954724083523426</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.02414222167162</v>
+        <v>-24.78654137694642</v>
       </c>
       <c r="F35" t="n">
-        <v>7.816852051552299</v>
+        <v>7.8313039558509</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.242310900980926</v>
+        <v>-7.189186952365028</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.855180207524034</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.60971577658384</v>
+        <v>-24.38636149786883</v>
       </c>
       <c r="F36" t="n">
-        <v>7.869980889175064</v>
+        <v>7.891810304835839</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.388321091061341</v>
+        <v>-7.341010171610205</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.722993921505064</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.09704962751227</v>
+        <v>-23.89463985421513</v>
       </c>
       <c r="F37" t="n">
-        <v>7.856677901490189</v>
+        <v>7.882335409527758</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.345908956490854</v>
+        <v>-7.295733079015706</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.562652436586382</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.5101145751254</v>
+        <v>-23.3218095866393</v>
       </c>
       <c r="F38" t="n">
-        <v>7.622494472564962</v>
+        <v>7.641458930201726</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.307241801180424</v>
+        <v>-7.24192466943844</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.381175493314531</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.99201673942469</v>
+        <v>-22.80953455811709</v>
       </c>
       <c r="F39" t="n">
-        <v>7.549887831584408</v>
+        <v>7.584492222188432</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.49640236586823</v>
+        <v>-7.42906607429021</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.184690981779144</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.66701511893965</v>
+        <v>-22.50109689289716</v>
       </c>
       <c r="F40" t="n">
-        <v>7.417830867102169</v>
+        <v>7.468710761566153</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.480948215161912</v>
+        <v>-7.42374194581214</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9770341166781228</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.14622344045527</v>
+        <v>-21.98429953302304</v>
       </c>
       <c r="F41" t="n">
-        <v>7.504014280152146</v>
+        <v>7.558531595725114</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.876317311482457</v>
+        <v>-7.833289162046738</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7620451672404039</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.69017687990944</v>
+        <v>-21.53818254542392</v>
       </c>
       <c r="F42" t="n">
-        <v>7.55359369878953</v>
+        <v>7.616446771070589</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.945115416113683</v>
+        <v>-7.883719267878966</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5433708088906402</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.37384835760631</v>
+        <v>-21.20680565998443</v>
       </c>
       <c r="F43" t="n">
-        <v>7.41694106785239</v>
+        <v>7.479388352563495</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.143550426828028</v>
+        <v>-8.074600762983927</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3230654003168345</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.47410975686735</v>
+        <v>-20.31046980802484</v>
       </c>
       <c r="F44" t="n">
-        <v>7.671267205069306</v>
+        <v>7.725192950811378</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.14345264669069</v>
+        <v>-8.081064030061988</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1030571781798641</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.596757918572</v>
+        <v>-19.43763541207452</v>
       </c>
       <c r="F45" t="n">
-        <v>7.800434766493199</v>
+        <v>7.873271190796498</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.277015425287939</v>
+        <v>-8.227294225451415</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.1138903613371151</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.17244101259245</v>
+        <v>-19.02512545767857</v>
       </c>
       <c r="F46" t="n">
-        <v>7.600122377141959</v>
+        <v>7.662706554045338</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.200209127408705</v>
+        <v>-8.154462690154983</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.326374825927063</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.96961567371162</v>
+        <v>-18.82801536782516</v>
       </c>
       <c r="F47" t="n">
-        <v>7.858765507422361</v>
+        <v>7.911933457100061</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.599342759016775</v>
+        <v>-8.555742595777627</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.5348327791122233</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.18251001317264</v>
+        <v>-18.02959654539614</v>
       </c>
       <c r="F48" t="n">
-        <v>7.827495419501573</v>
+        <v>7.881665615586991</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.570038051856486</v>
+        <v>-8.514054034223443</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.7379047219535554</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.63356743314856</v>
+        <v>-17.49482719627925</v>
       </c>
       <c r="F49" t="n">
-        <v>7.816881385593501</v>
+        <v>7.883841223642768</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.83159503022957</v>
+        <v>-8.77390963820684</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.933674287619936</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.18196497984476</v>
+        <v>-17.04070201543212</v>
       </c>
       <c r="F50" t="n">
-        <v>7.690353887877742</v>
+        <v>7.760838699878055</v>
       </c>
       <c r="G50" t="n">
-        <v>-9.482297399181615</v>
+        <v>-9.43883412813474</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-1.122910883011969</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.62891563405248</v>
+        <v>-16.49693200467324</v>
       </c>
       <c r="F51" t="n">
-        <v>7.765634815614498</v>
+        <v>7.838891694508352</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.660760816844611</v>
+        <v>-9.583255390983409</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-1.304388673825637</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.94820454095131</v>
+        <v>-15.81000209483736</v>
       </c>
       <c r="F52" t="n">
-        <v>7.681778569833173</v>
+        <v>7.776185292433301</v>
       </c>
       <c r="G52" t="n">
-        <v>-9.88847120067804</v>
+        <v>-9.831817389104231</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.475691260196171</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.74528631094</v>
+        <v>-15.63652546417861</v>
       </c>
       <c r="F53" t="n">
-        <v>7.751427361659244</v>
+        <v>7.838456572897196</v>
       </c>
       <c r="G53" t="n">
-        <v>-10.34496754985562</v>
+        <v>-10.29121291935389</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.639272277346551</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.33756758327363</v>
+        <v>-15.24212439121772</v>
       </c>
       <c r="F54" t="n">
-        <v>7.705519587178912</v>
+        <v>7.810520787659645</v>
       </c>
       <c r="G54" t="n">
-        <v>-10.5742375268796</v>
+        <v>-10.51255292723974</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.796477346731287</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.77189482175097</v>
+        <v>-14.6805535064564</v>
       </c>
       <c r="F55" t="n">
-        <v>7.767839757711477</v>
+        <v>7.850537308865343</v>
       </c>
       <c r="G55" t="n">
-        <v>-11.10989667524627</v>
+        <v>-11.04287328010773</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.946874522417875</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.61395545491528</v>
+        <v>-14.52027719433833</v>
       </c>
       <c r="F56" t="n">
-        <v>7.514398530737473</v>
+        <v>7.61332269568263</v>
       </c>
       <c r="G56" t="n">
-        <v>-11.50408752091189</v>
+        <v>-11.43785614488579</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.092354063068242</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.47178802423227</v>
+        <v>-14.37278563517724</v>
       </c>
       <c r="F57" t="n">
-        <v>7.554331938826434</v>
+        <v>7.666979546047021</v>
       </c>
       <c r="G57" t="n">
-        <v>-12.18512128846627</v>
+        <v>-12.09519778516311</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.2339201866387</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.99353559449691</v>
+        <v>-13.89975955378262</v>
       </c>
       <c r="F58" t="n">
-        <v>7.264506722748849</v>
+        <v>7.355432472459733</v>
       </c>
       <c r="G58" t="n">
-        <v>-12.38997556519688</v>
+        <v>-12.31390261834768</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.369379771689683</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.88824594261103</v>
+        <v>-13.79631794649243</v>
       </c>
       <c r="F59" t="n">
-        <v>7.491214860174562</v>
+        <v>7.60078728207586</v>
       </c>
       <c r="G59" t="n">
-        <v>-12.31742759229873</v>
+        <v>-12.244019154192</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-2.49715952723153</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.23666844142981</v>
+        <v>-13.16980149451101</v>
       </c>
       <c r="F60" t="n">
-        <v>7.38253712652991</v>
+        <v>7.492813565420043</v>
       </c>
       <c r="G60" t="n">
-        <v>-12.48734991496522</v>
+        <v>-12.40725331546455</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.616627210157425</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.91194060532932</v>
+        <v>-12.84527899669893</v>
       </c>
       <c r="F61" t="n">
-        <v>7.201658539474657</v>
+        <v>7.285505007242249</v>
       </c>
       <c r="G61" t="n">
-        <v>-12.58786789614899</v>
+        <v>-12.50555168753075</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.724636727847033</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.86980714415024</v>
+        <v>-12.79640848405725</v>
       </c>
       <c r="F62" t="n">
-        <v>7.364838921671677</v>
+        <v>7.453589063326785</v>
       </c>
       <c r="G62" t="n">
-        <v>-12.87610418499483</v>
+        <v>-12.80838655088119</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.817653904796787</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.88189276912526</v>
+        <v>-12.79311329342895</v>
       </c>
       <c r="F63" t="n">
-        <v>7.401281578857661</v>
+        <v>7.496441208515294</v>
       </c>
       <c r="G63" t="n">
-        <v>-12.85300851655552</v>
+        <v>-12.77183633554414</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.894440525675048</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.2141203417596</v>
+        <v>-13.11421837544106</v>
       </c>
       <c r="F64" t="n">
-        <v>7.209319613235113</v>
+        <v>7.301311166442985</v>
       </c>
       <c r="G64" t="n">
-        <v>-13.0980748747665</v>
+        <v>-13.04488736906134</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.952748342146141</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.12114120916461</v>
+        <v>-13.03884944558069</v>
       </c>
       <c r="F65" t="n">
-        <v>7.375746295991765</v>
+        <v>7.473648658501737</v>
       </c>
       <c r="G65" t="n">
-        <v>-13.16843746159514</v>
+        <v>-13.11755756713116</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.989164478313385</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.04579183533171</v>
+        <v>-12.96113379242422</v>
       </c>
       <c r="F66" t="n">
-        <v>7.167958615141012</v>
+        <v>7.259994169410686</v>
       </c>
       <c r="G66" t="n">
-        <v>-13.45287499210539</v>
+        <v>-13.3960402872775</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.003464793025551</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.39043259640115</v>
+        <v>-13.28970927692897</v>
       </c>
       <c r="F67" t="n">
-        <v>7.111065242230723</v>
+        <v>7.192740990949405</v>
       </c>
       <c r="G67" t="n">
-        <v>-13.4394106671939</v>
+        <v>-13.3801999050287</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.995545279221618</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.25397063673182</v>
+        <v>-13.16074216478662</v>
       </c>
       <c r="F68" t="n">
-        <v>7.242325298593656</v>
+        <v>7.332532364295104</v>
       </c>
       <c r="G68" t="n">
-        <v>-13.38765564050074</v>
+        <v>-13.33525037589428</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.963281028010977</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.74046593204479</v>
+        <v>-13.63477049258896</v>
       </c>
       <c r="F69" t="n">
-        <v>7.313083894978516</v>
+        <v>7.401178909713456</v>
       </c>
       <c r="G69" t="n">
-        <v>-13.00271479582733</v>
+        <v>-12.97885644231678</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.906615624996345</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.66400675365311</v>
+        <v>-13.55507479165138</v>
       </c>
       <c r="F70" t="n">
-        <v>7.431373416123523</v>
+        <v>7.508580612565844</v>
       </c>
       <c r="G70" t="n">
-        <v>-13.04616828886047</v>
+        <v>-13.01413551586844</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.826995299764101</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.96609848795979</v>
+        <v>-13.85407667361816</v>
       </c>
       <c r="F71" t="n">
-        <v>7.280933785821683</v>
+        <v>7.362179301936076</v>
       </c>
       <c r="G71" t="n">
-        <v>-12.87184586001375</v>
+        <v>-12.86634572728847</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.723615394445789</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.0103684451397</v>
+        <v>-13.90101602854741</v>
       </c>
       <c r="F72" t="n">
-        <v>7.371424413921412</v>
+        <v>7.449648523792051</v>
       </c>
       <c r="G72" t="n">
-        <v>-13.13398463020399</v>
+        <v>-13.12912984638515</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.596011194508041</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.40833360410658</v>
+        <v>-14.29627756671688</v>
       </c>
       <c r="F73" t="n">
-        <v>7.503603603575325</v>
+        <v>7.566583790034923</v>
       </c>
       <c r="G73" t="n">
-        <v>-13.08205848827049</v>
+        <v>-13.06702968116159</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.446856617590126</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.62885225883877</v>
+        <v>-14.52699957878034</v>
       </c>
       <c r="F74" t="n">
-        <v>7.343073063100173</v>
+        <v>7.409803117826694</v>
       </c>
       <c r="G74" t="n">
-        <v>-12.99697510176557</v>
+        <v>-12.98396545449271</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.276352504079058</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.17721793605256</v>
+        <v>-15.05562833527238</v>
       </c>
       <c r="F75" t="n">
-        <v>7.458654074440909</v>
+        <v>7.511685131926335</v>
       </c>
       <c r="G75" t="n">
-        <v>-13.02952122047862</v>
+        <v>-13.0225788307276</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.083241382849089</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.36736608012748</v>
+        <v>-15.26108395984762</v>
       </c>
       <c r="F76" t="n">
-        <v>7.569184741688121</v>
+        <v>7.625061201170093</v>
       </c>
       <c r="G76" t="n">
-        <v>-13.17381048014188</v>
+        <v>-13.1531935381841</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.87001428522495</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.90491727415164</v>
+        <v>-15.78776689160663</v>
       </c>
       <c r="F77" t="n">
-        <v>7.550689628710582</v>
+        <v>7.602346875266406</v>
       </c>
       <c r="G77" t="n">
-        <v>-12.90580490171134</v>
+        <v>-12.88693822421191</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.637635008241256</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.30547849576485</v>
+        <v>-16.19782256455539</v>
       </c>
       <c r="F78" t="n">
-        <v>7.631856920715104</v>
+        <v>7.683880842785946</v>
       </c>
       <c r="G78" t="n">
-        <v>-12.80682695769065</v>
+        <v>-12.80493002302628</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.384762462616732</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.2827299468131</v>
+        <v>-16.17251217600537</v>
       </c>
       <c r="F79" t="n">
-        <v>7.730663749495456</v>
+        <v>7.789683840392853</v>
       </c>
       <c r="G79" t="n">
-        <v>-12.53378570218718</v>
+        <v>-12.54971408655959</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.112968816901335</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.06167585489119</v>
+        <v>-16.93640972094709</v>
       </c>
       <c r="F80" t="n">
-        <v>7.75943555490725</v>
+        <v>7.816617379222687</v>
       </c>
       <c r="G80" t="n">
-        <v>-12.37707347607509</v>
+        <v>-12.40872979553836</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.8236764319494858</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.9446500510835</v>
+        <v>-17.80938100908969</v>
       </c>
       <c r="F81" t="n">
-        <v>7.833464896886076</v>
+        <v>7.869589768625711</v>
       </c>
       <c r="G81" t="n">
-        <v>-11.93514147835405</v>
+        <v>-11.96800049350658</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5166517644815043</v>
       </c>
       <c r="E82" t="n">
-        <v>-18.67304362815769</v>
+        <v>-18.53269001902229</v>
       </c>
       <c r="F82" t="n">
-        <v>7.879607343696019</v>
+        <v>7.910095190518101</v>
       </c>
       <c r="G82" t="n">
-        <v>-11.88070727589781</v>
+        <v>-11.93565482407507</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1932229426301871</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.37736373541919</v>
+        <v>-19.25708438847935</v>
       </c>
       <c r="F83" t="n">
-        <v>8.023451703734391</v>
+        <v>8.060055698146984</v>
       </c>
       <c r="G83" t="n">
-        <v>-11.96738447864135</v>
+        <v>-12.02114399814995</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.14316055514311</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.3877601175839</v>
+        <v>-20.28979419798466</v>
       </c>
       <c r="F84" t="n">
-        <v>7.763718324922667</v>
+        <v>7.804414418082867</v>
       </c>
       <c r="G84" t="n">
-        <v>-11.77926038340933</v>
+        <v>-11.8396885082844</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.4896019590462958</v>
       </c>
       <c r="E85" t="n">
-        <v>-21.4077340642009</v>
+        <v>-21.30786143192356</v>
       </c>
       <c r="F85" t="n">
-        <v>8.220933358109686</v>
+        <v>8.258163145401245</v>
       </c>
       <c r="G85" t="n">
-        <v>-11.93150894625193</v>
+        <v>-11.99020636269611</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.8431824228427165</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.4264808700943</v>
+        <v>-22.33074433762637</v>
       </c>
       <c r="F86" t="n">
-        <v>8.193251801229215</v>
+        <v>8.226893057480456</v>
       </c>
       <c r="G86" t="n">
-        <v>-11.50350084008786</v>
+        <v>-11.55598432880419</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.197520225425831</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.29032438241637</v>
+        <v>-23.20308983289</v>
       </c>
       <c r="F87" t="n">
-        <v>8.28328775169032</v>
+        <v>8.342664740089003</v>
       </c>
       <c r="G87" t="n">
-        <v>-11.35922135843833</v>
+        <v>-11.4084781026225</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.545734869488033</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.53177034010461</v>
+        <v>-24.45989216114723</v>
       </c>
       <c r="F88" t="n">
-        <v>8.304999831186288</v>
+        <v>8.358915798914627</v>
       </c>
       <c r="G88" t="n">
-        <v>-11.48440926827256</v>
+        <v>-11.52942724350311</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.882520366600005</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.91018671417635</v>
+        <v>-25.84269886338545</v>
       </c>
       <c r="F89" t="n">
-        <v>8.242914332983336</v>
+        <v>8.287262514273122</v>
       </c>
       <c r="G89" t="n">
-        <v>-10.97843616960179</v>
+        <v>-11.03001030304088</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.198963910639836</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.38884239604044</v>
+        <v>-27.3552598078716</v>
       </c>
       <c r="F90" t="n">
-        <v>8.283986879672289</v>
+        <v>8.329904432166353</v>
       </c>
       <c r="G90" t="n">
-        <v>-11.11603726787111</v>
+        <v>-11.17665606401399</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.484776592848058</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.11364735113653</v>
+        <v>-29.09172015533842</v>
       </c>
       <c r="F91" t="n">
-        <v>8.418297676320176</v>
+        <v>8.466337057794483</v>
       </c>
       <c r="G91" t="n">
-        <v>-10.78583374407968</v>
+        <v>-10.85361982428945</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.731751151866283</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.97708254044743</v>
+        <v>-30.96152816510034</v>
       </c>
       <c r="F92" t="n">
-        <v>8.440527990544039</v>
+        <v>8.49784670705175</v>
       </c>
       <c r="G92" t="n">
-        <v>-10.75250538426792</v>
+        <v>-10.81969011663307</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.929259235201168</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.54349834007608</v>
+        <v>-32.55023539153868</v>
       </c>
       <c r="F93" t="n">
-        <v>8.315604087080628</v>
+        <v>8.379816303270688</v>
       </c>
       <c r="G93" t="n">
-        <v>-10.93020122785281</v>
+        <v>-10.97421206766878</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>3.066109909806463</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.56942945062263</v>
+        <v>-34.59820125603442</v>
       </c>
       <c r="F94" t="n">
-        <v>8.237873766903547</v>
+        <v>8.29918191301466</v>
       </c>
       <c r="G94" t="n">
-        <v>-10.22947942964536</v>
+        <v>-10.27887795502867</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>3.136134840994814</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.84484658158785</v>
+        <v>-36.88104478843049</v>
       </c>
       <c r="F95" t="n">
-        <v>8.039976546944564</v>
+        <v>8.106887494925161</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.761034347685037</v>
+        <v>-9.795961412742276</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>3.12844019697887</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.67753480671272</v>
+        <v>-38.72790868896598</v>
       </c>
       <c r="F96" t="n">
-        <v>7.792392350197123</v>
+        <v>7.850214634412127</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.246798827409188</v>
+        <v>-9.270725627015869</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>3.044378106713231</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.30896208421639</v>
+        <v>-41.35832638655162</v>
       </c>
       <c r="F97" t="n">
-        <v>7.534316344713284</v>
+        <v>7.58692205860129</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.831257688755752</v>
+        <v>-8.854563584490336</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>2.868319154637783</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.22800239312814</v>
+        <v>-43.30853166973653</v>
       </c>
       <c r="F98" t="n">
-        <v>7.248984125946394</v>
+        <v>7.292124722540052</v>
       </c>
       <c r="G98" t="n">
-        <v>-8.298512388481765</v>
+        <v>-8.333664347854883</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>2.620584155377364</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.81632085258278</v>
+        <v>-45.91867710034852</v>
       </c>
       <c r="F99" t="n">
-        <v>6.911349311717248</v>
+        <v>6.946075927492945</v>
       </c>
       <c r="G99" t="n">
-        <v>-8.03202729118683</v>
+        <v>-8.075260778910959</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>2.270478858283574</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.12074690579285</v>
+        <v>-48.2282121657345</v>
       </c>
       <c r="F100" t="n">
-        <v>6.304638226553704</v>
+        <v>6.345065424336223</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.633319003176183</v>
+        <v>-7.680962375094269</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.869295497310147</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.22536535961068</v>
+        <v>-50.34577793198764</v>
       </c>
       <c r="F101" t="n">
-        <v>5.984877621429998</v>
+        <v>6.033757912085414</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.370197542605688</v>
+        <v>-7.410913191793355</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>1.338066900498777</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.22786468249582</v>
+        <v>-52.33773166706085</v>
       </c>
       <c r="F102" t="n">
-        <v>5.572445891143921</v>
+        <v>5.62035326943282</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.195415547113478</v>
+        <v>-7.248568829770577</v>
       </c>
     </row>
   </sheetData>
